--- a/biology/Zoologie/Gryllomorphinae/Gryllomorphinae.xlsx
+++ b/biology/Zoologie/Gryllomorphinae/Gryllomorphinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Gryllomorphinae sont une sous-famille d'insectes orthoptères de la famille des gryllidés.
 Elle forme un groupe avec les Gryllinae Laicharting 1781, les Gryllomiminae Gorochov 1986, les Itarinae Chopard 1932, les Landrevinae Gorochov 1982, les Sclerogryllinae Gorochov 1985 et les †Gryllospeculinae Gorochov 1985.
@@ -513,9 +525,11 @@
           <t>Liste des tribus et genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Orthoptera Species File (26 mars 2010)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Orthoptera Species File (26 mars 2010) :
 tribu des Eurygryllodini Gorochov, 1990
 Eurygryllodes Chopard, 1951
 Maluagryllus Otte, 1994
@@ -557,7 +571,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Saussure, 1877 : Mélanges Orthoptérologiques. Fasc. V. Gryllides. Mémoires de la Société de Physique et d'Histoire Naturelle de Genève, vol. 25, n. 1, p. 1-352.</t>
         </is>
